--- a/DPMMVCCore/DPM_Testing/wwwroot/DPM/src/assets/GoodEngineeringPratice.xlsx
+++ b/DPMMVCCore/DPM_Testing/wwwroot/DPM/src/assets/GoodEngineeringPratice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20361"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amins\Desktop\SHIV SIR PROJECT\Predictive\Predictive-Maintenance\DPMMVCCore\DPM_Testing\wwwroot\DPM\src\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shivani\Desktop\DPM\13-3-2021\DPMCore\DPMMVCCore\DPM_Testing\wwwroot\DPM\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5DB838-7CBC-4861-9067-30CAABB355EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB100F5-09C8-4E70-A0E3-DF252C5BAEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{381405EB-F90B-4D98-BDA1-03FC15F5CF2A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{381405EB-F90B-4D98-BDA1-03FC15F5CF2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -472,13 +472,13 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="118.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="118.1796875" customWidth="1"/>
+    <col min="3" max="3" width="22.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -489,7 +489,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -500,7 +500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -511,7 +511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -522,7 +522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -533,7 +533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -544,7 +544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -555,7 +555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -577,7 +577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -588,7 +588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -599,7 +599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -610,7 +610,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -621,7 +621,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -632,7 +632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -643,7 +643,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -654,7 +654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -665,7 +665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -676,7 +676,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -687,7 +687,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -698,7 +698,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -709,7 +709,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -720,7 +720,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -731,7 +731,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
